--- a/Komputasi.xlsx
+++ b/Komputasi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajisusanto/Documents/Aji Susanto/Buku/Buku Komputasi/Praktik Komputer Akuntansi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870294E3-8A41-5B45-887A-AA6F04A75893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9723B3-5573-4144-BF92-32A13E579A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" firstSheet="2" activeTab="9" xr2:uid="{87121DEA-6911-9F41-B78B-DF883739A67A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15860" firstSheet="2" activeTab="4" xr2:uid="{87121DEA-6911-9F41-B78B-DF883739A67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Coa Bengkel Mutu" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="517">
   <si>
     <t>1-1101</t>
   </si>
@@ -1600,6 +1600,12 @@
   </si>
   <si>
     <t>Transaksi</t>
+  </si>
+  <si>
+    <t>Kendaraan (Vehicle)</t>
+  </si>
+  <si>
+    <t>Rp. 45.300.000</t>
   </si>
 </sst>
 </file>
@@ -1681,9 +1687,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1710,6 +1713,9 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2427,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62FE3DB-C391-BB44-B55E-ADB37B094249}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2631,10 +2637,10 @@
       <c r="B2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2645,10 +2651,10 @@
       <c r="B3" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2659,10 +2665,10 @@
       <c r="B4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2673,10 +2679,10 @@
       <c r="B5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2687,10 +2693,10 @@
       <c r="B6" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2701,10 +2707,10 @@
       <c r="B7" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2715,10 +2721,10 @@
       <c r="B8" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -2729,10 +2735,10 @@
       <c r="B9" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>457</v>
       </c>
     </row>
@@ -2743,10 +2749,10 @@
       <c r="B10" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>458</v>
       </c>
     </row>
@@ -2757,10 +2763,10 @@
       <c r="B11" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>424</v>
       </c>
     </row>
@@ -2771,10 +2777,10 @@
       <c r="B12" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>459</v>
       </c>
     </row>
@@ -2782,10 +2788,10 @@
       <c r="A13" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>460</v>
       </c>
     </row>
@@ -2841,7 +2847,7 @@
       <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2858,7 +2864,7 @@
       <c r="D3" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>461</v>
       </c>
     </row>
@@ -2866,7 +2872,7 @@
       <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>413</v>
       </c>
     </row>
@@ -2900,7 +2906,7 @@
       <c r="D7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>456</v>
       </c>
     </row>
@@ -2917,7 +2923,7 @@
       <c r="D8" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>413</v>
       </c>
     </row>
@@ -2925,7 +2931,7 @@
       <c r="A9" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>424</v>
       </c>
     </row>
@@ -3117,10 +3123,10 @@
       <c r="A2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3128,10 +3134,10 @@
       <c r="A3" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3139,10 +3145,10 @@
       <c r="A4" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3150,10 +3156,10 @@
       <c r="A5" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3161,10 +3167,10 @@
       <c r="A6" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3172,10 +3178,10 @@
       <c r="A7" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3183,10 +3189,10 @@
       <c r="A8" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3194,10 +3200,10 @@
       <c r="A9" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3208,7 +3214,7 @@
       <c r="B10" s="10">
         <v>90600000</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3216,10 +3222,10 @@
       <c r="A11" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3227,10 +3233,10 @@
       <c r="A12" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3238,10 +3244,10 @@
       <c r="A13" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>412</v>
       </c>
     </row>
@@ -3249,10 +3255,10 @@
       <c r="A14" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>450</v>
       </c>
     </row>
@@ -3260,10 +3266,10 @@
       <c r="A15" t="s">
         <v>171</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>472</v>
       </c>
     </row>
@@ -3271,10 +3277,10 @@
       <c r="A16" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>473</v>
       </c>
     </row>
@@ -3282,10 +3288,10 @@
       <c r="A17" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -3293,10 +3299,10 @@
       <c r="A18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>475</v>
       </c>
     </row>
@@ -3350,7 +3356,7 @@
       <c r="B2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>476</v>
       </c>
       <c r="D2" t="s">
@@ -3370,7 +3376,7 @@
       <c r="B3" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D3" t="s">
@@ -3390,7 +3396,7 @@
       <c r="B4" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>415</v>
       </c>
       <c r="D4" t="s">
@@ -3410,7 +3416,7 @@
       <c r="B5" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>477</v>
       </c>
       <c r="D5" t="s">
@@ -3462,7 +3468,7 @@
       <c r="B9" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>478</v>
       </c>
       <c r="D9" t="s">
@@ -3482,7 +3488,7 @@
       <c r="B10" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>479</v>
       </c>
       <c r="D10" t="s">
@@ -3502,7 +3508,7 @@
       <c r="B11" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>480</v>
       </c>
       <c r="D11" t="s">
@@ -3568,10 +3574,10 @@
       <c r="C3" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>486</v>
       </c>
     </row>
@@ -3585,10 +3591,10 @@
       <c r="C4" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>487</v>
       </c>
     </row>
@@ -3602,10 +3608,10 @@
       <c r="C5" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>488</v>
       </c>
     </row>
@@ -3619,10 +3625,10 @@
       <c r="C6" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>489</v>
       </c>
     </row>
@@ -3643,10 +3649,10 @@
       <c r="C8" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>484</v>
       </c>
     </row>
@@ -3660,10 +3666,10 @@
       <c r="C9" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>490</v>
       </c>
     </row>
@@ -3684,10 +3690,10 @@
       <c r="C11" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>437</v>
       </c>
     </row>
@@ -3701,10 +3707,10 @@
       <c r="C12" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>434</v>
       </c>
     </row>
@@ -3718,10 +3724,10 @@
       <c r="C13" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>489</v>
       </c>
     </row>
@@ -3770,7 +3776,7 @@
       <c r="C2" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>491</v>
       </c>
     </row>
@@ -3784,7 +3790,7 @@
       <c r="C3" t="s">
         <v>380</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>453</v>
       </c>
     </row>
@@ -3798,7 +3804,7 @@
       <c r="C4" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>492</v>
       </c>
     </row>
@@ -3812,7 +3818,7 @@
       <c r="C5" t="s">
         <v>382</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>493</v>
       </c>
     </row>
@@ -3848,7 +3854,7 @@
       <c r="C9" t="s">
         <v>383</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>494</v>
       </c>
     </row>
@@ -3862,7 +3868,7 @@
       <c r="C10" t="s">
         <v>384</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>477</v>
       </c>
     </row>
@@ -3876,7 +3882,7 @@
       <c r="C11" t="s">
         <v>385</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>414</v>
       </c>
     </row>
@@ -3890,7 +3896,7 @@
       <c r="C12" t="s">
         <v>386</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>476</v>
       </c>
     </row>
@@ -3969,19 +3975,19 @@
       <c r="A3" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>430</v>
       </c>
     </row>
@@ -4009,19 +4015,19 @@
       <c r="A5" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>496</v>
       </c>
     </row>
@@ -4059,10 +4065,10 @@
       <c r="A2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4070,10 +4076,10 @@
       <c r="A3" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4081,10 +4087,10 @@
       <c r="A4" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4092,10 +4098,10 @@
       <c r="A5" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4103,10 +4109,10 @@
       <c r="A6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4114,10 +4120,10 @@
       <c r="A7" t="s">
         <v>289</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4125,10 +4131,10 @@
       <c r="A8" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4136,10 +4142,10 @@
       <c r="A9" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4147,10 +4153,10 @@
       <c r="A10" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4158,10 +4164,10 @@
       <c r="A11" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4169,10 +4175,10 @@
       <c r="A12" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4180,10 +4186,10 @@
       <c r="A13" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>506</v>
       </c>
     </row>
@@ -4191,7 +4197,7 @@
       <c r="A14" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>412</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -4202,10 +4208,10 @@
       <c r="A15" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>507</v>
       </c>
     </row>
@@ -4213,10 +4219,10 @@
       <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>508</v>
       </c>
     </row>
@@ -4261,10 +4267,10 @@
       <c r="B2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4275,10 +4281,10 @@
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4289,10 +4295,10 @@
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4303,10 +4309,10 @@
       <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4317,10 +4323,10 @@
       <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4331,10 +4337,10 @@
       <c r="B7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>453</v>
       </c>
     </row>
@@ -4345,10 +4351,10 @@
       <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4359,10 +4365,10 @@
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>452</v>
       </c>
     </row>
@@ -4371,10 +4377,10 @@
         <v>76</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4406,7 +4412,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="30" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4414,19 +4420,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="8" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="8" t="s">
         <v>389</v>
       </c>
@@ -4440,7 +4446,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="30" t="s">
         <v>297</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -4448,25 +4454,25 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="30" t="s">
         <v>299</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -4474,19 +4480,19 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="30" t="s">
         <v>301</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -4494,19 +4500,19 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8" t="s">
         <v>396</v>
       </c>
@@ -4544,7 +4550,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="30" t="s">
         <v>309</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -4552,13 +4558,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="8" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="8" t="s">
         <v>393</v>
       </c>
@@ -4580,7 +4586,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="30" t="s">
         <v>312</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -4588,13 +4594,13 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="8" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="8" t="s">
         <v>401</v>
       </c>
@@ -4707,7 +4713,7 @@
       <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4715,16 +4721,16 @@
       <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>413</v>
       </c>
     </row>
@@ -4764,53 +4770,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>420</v>
       </c>
     </row>
@@ -4821,10 +4827,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212B6451-6913-8C4C-BEA9-47ED98FBCA48}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4849,10 +4855,10 @@
       <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4860,10 +4866,10 @@
       <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4871,10 +4877,10 @@
       <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4882,10 +4888,10 @@
       <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4893,10 +4899,10 @@
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4904,10 +4910,10 @@
       <c r="A7" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4915,76 +4921,98 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>448</v>
+        <v>515</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>449</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>449</v>
+        <v>95</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>450</v>
+        <v>96</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>451</v>
+        <v>97</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>447</v>
       </c>
     </row>
@@ -5038,7 +5066,7 @@
       <c r="B2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>414</v>
       </c>
       <c r="D2" t="s">
@@ -5058,7 +5086,7 @@
       <c r="B3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>415</v>
       </c>
       <c r="D3" t="s">
@@ -5078,7 +5106,7 @@
       <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>416</v>
       </c>
       <c r="D4" t="s">
@@ -5098,7 +5126,7 @@
       <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>415</v>
       </c>
       <c r="D5" t="s">
@@ -5118,16 +5146,16 @@
       <c r="B6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5158,7 +5186,7 @@
       <c r="B9" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>417</v>
       </c>
       <c r="D9" t="s">
@@ -5178,7 +5206,7 @@
       <c r="B10" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>418</v>
       </c>
       <c r="D10" t="s">
@@ -5198,7 +5226,7 @@
       <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>419</v>
       </c>
       <c r="D11" t="s">
@@ -5253,16 +5281,16 @@
       <c r="A2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="B2" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5276,10 +5304,10 @@
       <c r="C3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5293,10 +5321,10 @@
       <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>425</v>
       </c>
     </row>
@@ -5310,10 +5338,10 @@
       <c r="C5" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5327,10 +5355,10 @@
       <c r="C6" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5338,16 +5366,16 @@
       <c r="A7" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5361,10 +5389,10 @@
       <c r="C8" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5378,10 +5406,10 @@
       <c r="C9" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5389,16 +5417,16 @@
       <c r="A10" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="B10" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5412,10 +5440,10 @@
       <c r="C11" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5429,10 +5457,10 @@
       <c r="C12" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5446,10 +5474,10 @@
       <c r="C13" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5493,10 +5521,10 @@
       <c r="B2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5507,10 +5535,10 @@
       <c r="B3" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5521,10 +5549,10 @@
       <c r="B4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5535,10 +5563,10 @@
       <c r="B5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5549,10 +5577,10 @@
       <c r="B6" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5563,10 +5591,10 @@
       <c r="B7" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5580,7 +5608,7 @@
       <c r="C8" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5591,10 +5619,10 @@
       <c r="B9" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5605,10 +5633,10 @@
       <c r="B10" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5619,10 +5647,10 @@
       <c r="B11" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5633,10 +5661,10 @@
       <c r="B12" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5647,10 +5675,10 @@
       <c r="B13" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5658,10 +5686,10 @@
       <c r="A14" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5717,7 +5745,7 @@
       <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5725,16 +5753,16 @@
       <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5768,7 +5796,7 @@
       <c r="D6" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5776,16 +5804,16 @@
       <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="B7" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>437</v>
       </c>
     </row>
